--- a/test/inputs/spectramax.xlsx
+++ b/test/inputs/spectramax.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qr24461/Library/CloudStorage/OneDrive-UniversityofBristol/Code/esm/test/inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/qr24461_bristol_ac_uk/Documents/Code/esm/test/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01790514-9DD4-6D4D-9C2F-DE75F0C395C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{01790514-9DD4-6D4D-9C2F-DE75F0C395C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB4D9448-614C-454A-A7E9-650DB5AA46EC}"/>
   <bookViews>
-    <workbookView xWindow="11180" yWindow="880" windowWidth="18980" windowHeight="9440" xr2:uid="{7C37CC98-1F4A-4A36-93A3-A48642CDB423}"/>
+    <workbookView xWindow="11180" yWindow="880" windowWidth="18980" windowHeight="9440" activeTab="1" xr2:uid="{7C37CC98-1F4A-4A36-93A3-A48642CDB423}"/>
   </bookViews>
   <sheets>
     <sheet name="Samples" sheetId="1" r:id="rId1"/>
@@ -84,9 +84,6 @@
     <t>spectramax</t>
   </si>
   <si>
-    <t>600,700</t>
-  </si>
-  <si>
     <t>535</t>
   </si>
   <si>
@@ -100,6 +97,9 @@
   </si>
   <si>
     <t>535,(600 700)</t>
+  </si>
+  <si>
+    <t>600 700</t>
   </si>
 </sst>
 </file>
@@ -481,7 +481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2569E313-B3CC-438F-A253-EA0F3E8D819B}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -523,10 +523,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
@@ -542,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DA707B9-0BE9-45E5-A5EE-A3873F0594F1}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -561,18 +561,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
         <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/test/inputs/spectramax.xlsx
+++ b/test/inputs/spectramax.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/qr24461_bristol_ac_uk/Documents/Code/esm/test/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{01790514-9DD4-6D4D-9C2F-DE75F0C395C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB4D9448-614C-454A-A7E9-650DB5AA46EC}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{01790514-9DD4-6D4D-9C2F-DE75F0C395C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{642D472A-5E61-9D4F-8214-14FDF3C8FC6E}"/>
   <bookViews>
     <workbookView xWindow="11180" yWindow="880" windowWidth="18980" windowHeight="9440" activeTab="1" xr2:uid="{7C37CC98-1F4A-4A36-93A3-A48642CDB423}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Plate</t>
   </si>
@@ -82,12 +82,6 @@
   </si>
   <si>
     <t>spectramax</t>
-  </si>
-  <si>
-    <t>535</t>
-  </si>
-  <si>
-    <t>flu</t>
   </si>
   <si>
     <t>abs</t>
@@ -160,6 +154,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -523,10 +521,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
@@ -543,7 +541,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -561,19 +559,14 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
+      <c r="A3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test/inputs/spectramax.xlsx
+++ b/test/inputs/spectramax.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qr24461/Library/CloudStorage/OneDrive-UniversityofBristol/Code/esm/test/inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/qr24461_bristol_ac_uk/Documents/Code/esm/test/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01790514-9DD4-6D4D-9C2F-DE75F0C395C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{01790514-9DD4-6D4D-9C2F-DE75F0C395C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{642D472A-5E61-9D4F-8214-14FDF3C8FC6E}"/>
   <bookViews>
-    <workbookView xWindow="11180" yWindow="880" windowWidth="18980" windowHeight="9440" xr2:uid="{7C37CC98-1F4A-4A36-93A3-A48642CDB423}"/>
+    <workbookView xWindow="11180" yWindow="880" windowWidth="18980" windowHeight="9440" activeTab="1" xr2:uid="{7C37CC98-1F4A-4A36-93A3-A48642CDB423}"/>
   </bookViews>
   <sheets>
     <sheet name="Samples" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Plate</t>
   </si>
@@ -84,15 +84,6 @@
     <t>spectramax</t>
   </si>
   <si>
-    <t>600,700</t>
-  </si>
-  <si>
-    <t>535</t>
-  </si>
-  <si>
-    <t>flu</t>
-  </si>
-  <si>
     <t>abs</t>
   </si>
   <si>
@@ -100,6 +91,9 @@
   </si>
   <si>
     <t>535,(600 700)</t>
+  </si>
+  <si>
+    <t>600 700</t>
   </si>
 </sst>
 </file>
@@ -160,6 +154,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -481,7 +479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2569E313-B3CC-438F-A253-EA0F3E8D819B}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -523,10 +521,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
@@ -542,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DA707B9-0BE9-45E5-A5EE-A3873F0594F1}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -561,19 +559,14 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
+      <c r="A3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test/inputs/spectramax.xlsx
+++ b/test/inputs/spectramax.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/qr24461_bristol_ac_uk/Documents/Code/esm/test/inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qr24461/.julia/dev/esm/test/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{01790514-9DD4-6D4D-9C2F-DE75F0C395C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{642D472A-5E61-9D4F-8214-14FDF3C8FC6E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2843907E-82B1-5E44-9FCB-E672872B151F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11180" yWindow="880" windowWidth="18980" windowHeight="9440" activeTab="1" xr2:uid="{7C37CC98-1F4A-4A36-93A3-A48642CDB423}"/>
+    <workbookView xWindow="11180" yWindow="880" windowWidth="18980" windowHeight="9440" xr2:uid="{7C37CC98-1F4A-4A36-93A3-A48642CDB423}"/>
   </bookViews>
   <sheets>
     <sheet name="Samples" sheetId="1" r:id="rId1"/>
-    <sheet name="ID" sheetId="5" r:id="rId2"/>
+    <sheet name="Channel Map" sheetId="5" r:id="rId2"/>
     <sheet name="Groups" sheetId="2" r:id="rId3"/>
     <sheet name="Transformations" sheetId="3" r:id="rId4"/>
     <sheet name="Views" sheetId="4" r:id="rId5"/>
@@ -51,9 +51,6 @@
     <t>Well</t>
   </si>
   <si>
-    <t>Group</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -66,15 +63,6 @@
     <t>Equation</t>
   </si>
   <si>
-    <t>Groups</t>
-  </si>
-  <si>
-    <t>Current</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
     <t>Plate brand</t>
   </si>
   <si>
@@ -94,6 +82,18 @@
   </si>
   <si>
     <t>600 700</t>
+  </si>
+  <si>
+    <t>Channel</t>
+  </si>
+  <si>
+    <t>Samples</t>
+  </si>
+  <si>
+    <t>View</t>
+  </si>
+  <si>
+    <t>New name</t>
   </si>
 </sst>
 </file>
@@ -154,10 +154,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -479,55 +475,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2569E313-B3CC-438F-A253-EA0F3E8D819B}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="76.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
         <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -540,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DA707B9-0BE9-45E5-A5EE-A3873F0594F1}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -551,18 +547,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -578,7 +574,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B29"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -591,7 +587,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -615,10 +611,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -631,17 +627,17 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/test/inputs/spectramax.xlsx
+++ b/test/inputs/spectramax.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qr24461/.julia/dev/esm/test/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2843907E-82B1-5E44-9FCB-E672872B151F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7397356A-3A26-194E-B66F-07BE37DF2AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11180" yWindow="880" windowWidth="18980" windowHeight="9440" xr2:uid="{7C37CC98-1F4A-4A36-93A3-A48642CDB423}"/>
+    <workbookView xWindow="160" yWindow="660" windowWidth="38080" windowHeight="18820" xr2:uid="{7C37CC98-1F4A-4A36-93A3-A48642CDB423}"/>
   </bookViews>
   <sheets>
     <sheet name="Samples" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>Plate</t>
   </si>
@@ -72,18 +72,9 @@
     <t>spectramax</t>
   </si>
   <si>
-    <t>abs</t>
-  </si>
-  <si>
     <t>$GITHUB_WORKSPACE/test/inputs/spectramax-data.txt</t>
   </si>
   <si>
-    <t>535,(600 700)</t>
-  </si>
-  <si>
-    <t>600 700</t>
-  </si>
-  <si>
     <t>Channel</t>
   </si>
   <si>
@@ -94,6 +85,21 @@
   </si>
   <si>
     <t>New name</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>abs600</t>
+  </si>
+  <si>
+    <t>700</t>
+  </si>
+  <si>
+    <t>abs700</t>
+  </si>
+  <si>
+    <t>535_485,600,700</t>
   </si>
 </sst>
 </file>
@@ -135,9 +141,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -476,13 +481,14 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="76.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -493,7 +499,7 @@
       <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D1" t="s">
@@ -514,10 +520,10 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -537,7 +543,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -547,22 +553,27 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -587,7 +598,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -637,7 +648,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/test/inputs/spectramax.xlsx
+++ b/test/inputs/spectramax.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qr24461/.julia/dev/esm/test/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7397356A-3A26-194E-B66F-07BE37DF2AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54870F4E-5255-374C-BA7E-9385576F9FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="660" windowWidth="38080" windowHeight="18820" xr2:uid="{7C37CC98-1F4A-4A36-93A3-A48642CDB423}"/>
+    <workbookView xWindow="-30100" yWindow="920" windowWidth="29940" windowHeight="18580" xr2:uid="{7C37CC98-1F4A-4A36-93A3-A48642CDB423}"/>
   </bookViews>
   <sheets>
     <sheet name="Samples" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Plate</t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>535_485,600,700</t>
+  </si>
+  <si>
+    <t>$GITHUB_WORKSPACE/test/inputs/spectramax-data2.txt</t>
+  </si>
+  <si>
+    <t>600,700,530_485,530_485_1,530_485_2</t>
   </si>
 </sst>
 </file>
@@ -478,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2569E313-B3CC-438F-A253-EA0F3E8D819B}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -530,6 +536,17 @@
       </c>
       <c r="E2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/test/inputs/spectramax.xlsx
+++ b/test/inputs/spectramax.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qr24461/.julia/dev/esm/test/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54870F4E-5255-374C-BA7E-9385576F9FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600C3CC6-20CE-C444-810B-B297372D9F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30100" yWindow="920" windowWidth="29940" windowHeight="18580" xr2:uid="{7C37CC98-1F4A-4A36-93A3-A48642CDB423}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Plate</t>
   </si>
@@ -105,7 +105,7 @@
     <t>$GITHUB_WORKSPACE/test/inputs/spectramax-data2.txt</t>
   </si>
   <si>
-    <t>600,700,530_485,530_485_1,530_485_2</t>
+    <t>600,700,530_485_1,530_485_2,530_485_3</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -547,6 +547,12 @@
       </c>
       <c r="C3" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/test/inputs/spectramax.xlsx
+++ b/test/inputs/spectramax.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/qr24461/.julia/dev/esm/test/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2843907E-82B1-5E44-9FCB-E672872B151F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600C3CC6-20CE-C444-810B-B297372D9F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11180" yWindow="880" windowWidth="18980" windowHeight="9440" xr2:uid="{7C37CC98-1F4A-4A36-93A3-A48642CDB423}"/>
+    <workbookView xWindow="-30100" yWindow="920" windowWidth="29940" windowHeight="18580" xr2:uid="{7C37CC98-1F4A-4A36-93A3-A48642CDB423}"/>
   </bookViews>
   <sheets>
     <sheet name="Samples" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Plate</t>
   </si>
@@ -72,18 +72,9 @@
     <t>spectramax</t>
   </si>
   <si>
-    <t>abs</t>
-  </si>
-  <si>
     <t>$GITHUB_WORKSPACE/test/inputs/spectramax-data.txt</t>
   </si>
   <si>
-    <t>535,(600 700)</t>
-  </si>
-  <si>
-    <t>600 700</t>
-  </si>
-  <si>
     <t>Channel</t>
   </si>
   <si>
@@ -94,6 +85,27 @@
   </si>
   <si>
     <t>New name</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>abs600</t>
+  </si>
+  <si>
+    <t>700</t>
+  </si>
+  <si>
+    <t>abs700</t>
+  </si>
+  <si>
+    <t>535_485,600,700</t>
+  </si>
+  <si>
+    <t>$GITHUB_WORKSPACE/test/inputs/spectramax-data2.txt</t>
+  </si>
+  <si>
+    <t>600,700,530_485_1,530_485_2,530_485_3</t>
   </si>
 </sst>
 </file>
@@ -135,9 +147,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -473,16 +484,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2569E313-B3CC-438F-A253-EA0F3E8D819B}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="76.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -493,7 +505,7 @@
       <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D1" t="s">
@@ -514,16 +526,33 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="E2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -537,7 +566,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -547,22 +576,27 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -587,7 +621,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -637,7 +671,7 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
